--- a/media/reports.xlsx
+++ b/media/reports.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y778"/>
+  <dimension ref="A1:Y777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49447,69 +49447,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>1623</v>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr"/>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
-      <c r="M778" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$vWGGM17HtxHwq9jcu85x7X$F0mbFoJP+R5dogk4+AuH2cf1aIx9MrJ7OQnL2/flyFA=</t>
-        </is>
-      </c>
-      <c r="N778" t="inlineStr"/>
-      <c r="O778" t="inlineStr">
-        <is>
-          <t>zinevichmaksim</t>
-        </is>
-      </c>
-      <c r="P778" t="inlineStr">
-        <is>
-          <t>zinevichmaksim</t>
-        </is>
-      </c>
-      <c r="Q778" t="inlineStr">
-        <is>
-          <t>zinevichmaksim</t>
-        </is>
-      </c>
-      <c r="R778" t="inlineStr">
-        <is>
-          <t>zinevichmaksim@yandex.ru</t>
-        </is>
-      </c>
-      <c r="S778" t="inlineStr"/>
-      <c r="T778" s="2" t="n">
-        <v>34425</v>
-      </c>
-      <c r="U778" t="inlineStr">
-        <is>
-          <t>+7(906)5015742</t>
-        </is>
-      </c>
-      <c r="V778" t="inlineStr"/>
-      <c r="W778" t="b">
-        <v>1</v>
-      </c>
-      <c r="X778" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y778" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
